--- a/Lab1.3/Requirement Linkage Traceability Matrix.xlsx
+++ b/Lab1.3/Requirement Linkage Traceability Matrix.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hacker4.1\Phân tích yêu cầu\Thực hành\Lab1.3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BCBCF4-2FC6-401B-8FB0-D70BC037D6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="10668" windowHeight="9024"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -252,19 +258,19 @@
   </si>
   <si>
     <t>Tốc độ phản hồi từ server về client đạt chuẩn</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>vd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,346 +286,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -627,251 +303,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -891,61 +325,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1203,30 +593,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35.8888888888889" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.7777777777778" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" style="5" customWidth="1"/>
     <col min="4" max="4" width="20" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.4444444444444" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.6666666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1286,7 +676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1303,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1320,7 +710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1337,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1354,7 +744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1371,7 +761,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
@@ -1408,7 +798,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
@@ -1465,7 +855,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1482,32 +872,81 @@
         <v>10</v>
       </c>
     </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>5</v>
+      </c>
+      <c r="I18" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="D22" s="5">
+        <v>5</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="D23" s="5">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="16.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="26.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="23.4444444444444" customWidth="1"/>
-    <col min="5" max="5" width="28.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="15.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="79" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="79.05" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
@@ -1550,7 +989,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="78" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="78" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -1573,7 +1012,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="70" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="70.05" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -1596,7 +1035,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="49" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="49.05" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -1618,6 +1057,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Lab1.3/Requirement Linkage Traceability Matrix.xlsx
+++ b/Lab1.3/Requirement Linkage Traceability Matrix.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hacker4.1\Phân tích yêu cầu\Thực hành\Lab1.3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BCBCF4-2FC6-401B-8FB0-D70BC037D6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -44,10 +38,10 @@
     <t>REQ001</t>
   </si>
   <si>
-    <t>Đăng ký</t>
-  </si>
-  <si>
-    <t>SignUp</t>
+    <t>Yêu cầu sửa chữa</t>
+  </si>
+  <si>
+    <t>Order</t>
   </si>
   <si>
     <t>In progress</t>
@@ -56,19 +50,13 @@
     <t>Unspecified</t>
   </si>
   <si>
-    <t>TC001,TC004</t>
-  </si>
-  <si>
     <t>REQ002</t>
   </si>
   <si>
-    <t>Đăng nhập</t>
-  </si>
-  <si>
-    <t>SignIn</t>
-  </si>
-  <si>
-    <t>TC002,TC004</t>
+    <t>Trả phòng</t>
+  </si>
+  <si>
+    <t>EndContract</t>
   </si>
   <si>
     <t>REQ003</t>
@@ -176,6 +164,12 @@
     <t>ManagerReport</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
     <t>Test</t>
   </si>
   <si>
@@ -258,19 +252,19 @@
   </si>
   <si>
     <t>Tốc độ phản hồi từ server về client đạt chuẩn</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>vd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,16 +280,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -303,9 +627,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -325,17 +891,61 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -593,30 +1203,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="35.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.7777777777778" style="5" customWidth="1"/>
+    <col min="2" max="2" width="35.8888888888889" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.7777777777778" style="5" customWidth="1"/>
     <col min="4" max="4" width="20" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.4444444444444" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.6666666666667" style="5" customWidth="1"/>
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="18">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +1246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -652,19 +1262,16 @@
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>9</v>
@@ -672,19 +1279,16 @@
       <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
@@ -693,15 +1297,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>9</v>
@@ -710,15 +1314,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>9</v>
@@ -727,15 +1331,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
@@ -744,15 +1348,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
@@ -761,15 +1365,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
@@ -780,13 +1384,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>9</v>
@@ -795,18 +1399,18 @@
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>9</v>
@@ -817,13 +1421,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>9</v>
@@ -832,18 +1436,18 @@
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>9</v>
@@ -852,18 +1456,18 @@
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>9</v>
@@ -872,10 +1476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:9">
-      <c r="C18" s="5" t="s">
-        <v>80</v>
-      </c>
+    <row r="18" spans="4:17">
       <c r="D18" s="5" t="s">
         <v>0</v>
       </c>
@@ -889,64 +1490,166 @@
         <v>3</v>
       </c>
       <c r="H18" s="5">
+        <v>4</v>
+      </c>
+      <c r="I18" s="5">
         <v>5</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
+        <v>6</v>
+      </c>
+      <c r="K18" s="5">
+        <v>7</v>
+      </c>
+      <c r="L18" s="5">
+        <v>8</v>
+      </c>
+      <c r="M18" s="5">
+        <v>9</v>
+      </c>
+      <c r="N18" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="3:9">
+      <c r="O18" s="5">
+        <v>11</v>
+      </c>
+      <c r="P18" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10">
       <c r="D19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="3:9">
+      <c r="I19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14">
       <c r="D20" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="3:9">
+      <c r="N20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
       <c r="D21" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:9">
+    <row r="22" spans="4:9">
       <c r="D22" s="5">
+        <v>4</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14">
+      <c r="D23" s="5">
         <v>5</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9">
-      <c r="D23" s="5">
+      <c r="J23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="D26" s="5">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12">
+      <c r="D28" s="5">
         <v>10</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15">
+      <c r="D30" s="5">
+        <v>12</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16">
+      <c r="D31" s="5">
+        <v>13</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="26.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="23.4444444444444" customWidth="1"/>
+    <col min="5" max="5" width="28.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="15.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -969,7 +1672,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="79.05" customHeight="1">
+    <row r="2" s="2" customFormat="1" ht="79.05" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
@@ -989,7 +1692,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="78" customHeight="1">
+    <row r="3" s="2" customFormat="1" ht="78" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -1012,7 +1715,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="70.05" customHeight="1">
+    <row r="4" s="2" customFormat="1" ht="70.05" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -1035,9 +1738,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="49.05" customHeight="1">
+    <row r="5" s="2" customFormat="1" ht="49.05" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>75</v>
@@ -1057,5 +1760,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Lab1.3/Requirement Linkage Traceability Matrix.xlsx
+++ b/Lab1.3/Requirement Linkage Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hacker4.1\Phân tích yêu cầu\Thực hành\Lab1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF404A4-F0A8-4EFB-B595-9AC4C59CF923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8610EC1-547E-4F75-AD8B-167BEAFCBCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -152,16 +152,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -439,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -456,7 +560,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="18">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -477,8 +581,50 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3">
+        <v>9</v>
+      </c>
+      <c r="N2" s="3">
+        <v>10</v>
+      </c>
+      <c r="O2" s="3">
+        <v>11</v>
+      </c>
+      <c r="P2" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -488,8 +634,18 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -499,8 +655,15 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -510,8 +673,12 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -521,8 +688,15 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="5">
+        <v>4</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -532,8 +706,18 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -543,8 +727,12 @@
       <c r="C8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -554,8 +742,12 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -565,8 +757,15 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="5">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -576,8 +775,12 @@
       <c r="C11" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -587,8 +790,21 @@
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="5">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -598,8 +814,12 @@
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -609,154 +829,36 @@
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="4:17">
-      <c r="D18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2</v>
-      </c>
-      <c r="G18" s="2">
-        <v>3</v>
-      </c>
-      <c r="H18" s="2">
-        <v>4</v>
-      </c>
-      <c r="I18" s="2">
-        <v>5</v>
-      </c>
-      <c r="J18" s="2">
-        <v>6</v>
-      </c>
-      <c r="K18" s="2">
-        <v>7</v>
-      </c>
-      <c r="L18" s="2">
-        <v>8</v>
-      </c>
-      <c r="M18" s="2">
-        <v>9</v>
-      </c>
-      <c r="N18" s="2">
-        <v>10</v>
-      </c>
-      <c r="O18" s="2">
-        <v>11</v>
-      </c>
-      <c r="P18" s="2">
+      <c r="D14" s="5">
         <v>12</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="M14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="D15" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="4:17">
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="4:17">
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="4:17">
-      <c r="D21" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="4:17">
-      <c r="D22" s="2">
-        <v>4</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="4:17">
-      <c r="D23" s="2">
-        <v>5</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="4:17">
-      <c r="D24" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="4:17">
-      <c r="D25" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="4:17">
-      <c r="D26" s="2">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="4:17">
-      <c r="D27" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="4:17">
-      <c r="D28" s="2">
-        <v>10</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="4:17">
-      <c r="D29" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="4:17">
-      <c r="D30" s="2">
-        <v>12</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="4:17">
-      <c r="D31" s="2">
-        <v>13</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="Q15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
